--- a/SchedulingData/dynamic12/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>265.16</v>
+        <v>211.9</v>
       </c>
       <c r="D2" t="n">
-        <v>304.68</v>
+        <v>256.7</v>
       </c>
       <c r="E2" t="n">
-        <v>13.272</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>251.08</v>
+        <v>256.7</v>
       </c>
       <c r="D3" t="n">
-        <v>307.98</v>
+        <v>333.1</v>
       </c>
       <c r="E3" t="n">
-        <v>14.312</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307.98</v>
+        <v>212.64</v>
       </c>
       <c r="D4" t="n">
-        <v>363.56</v>
+        <v>265.12</v>
       </c>
       <c r="E4" t="n">
-        <v>11.384</v>
+        <v>13.188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>363.56</v>
+        <v>229.9</v>
       </c>
       <c r="D5" t="n">
-        <v>413.28</v>
+        <v>275.48</v>
       </c>
       <c r="E5" t="n">
-        <v>9.052</v>
+        <v>15.132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>213.38</v>
+        <v>253.1</v>
       </c>
       <c r="D6" t="n">
-        <v>274.72</v>
+        <v>299.5</v>
       </c>
       <c r="E6" t="n">
-        <v>10.728</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>232.62</v>
+        <v>275.48</v>
       </c>
       <c r="D7" t="n">
-        <v>297.22</v>
+        <v>332.58</v>
       </c>
       <c r="E7" t="n">
-        <v>12.908</v>
+        <v>12.052</v>
       </c>
     </row>
     <row r="8">
@@ -580,22 +580,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>304.68</v>
+        <v>252.62</v>
       </c>
       <c r="D8" t="n">
-        <v>356.88</v>
+        <v>315.34</v>
       </c>
       <c r="E8" t="n">
-        <v>10.192</v>
+        <v>9.276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -603,127 +603,127 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>223.6</v>
+        <v>299.5</v>
       </c>
       <c r="D9" t="n">
-        <v>265.7</v>
+        <v>371.1</v>
       </c>
       <c r="E9" t="n">
-        <v>14.58</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>274.72</v>
+        <v>315.34</v>
       </c>
       <c r="D10" t="n">
-        <v>314.68</v>
+        <v>373.12</v>
       </c>
       <c r="E10" t="n">
-        <v>8.352</v>
+        <v>5.628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413.28</v>
+        <v>265.12</v>
       </c>
       <c r="D11" t="n">
-        <v>465.1</v>
+        <v>304.14</v>
       </c>
       <c r="E11" t="n">
-        <v>5.98</v>
+        <v>10.416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.68</v>
+        <v>264.54</v>
       </c>
       <c r="D12" t="n">
-        <v>358.22</v>
+        <v>320.98</v>
       </c>
       <c r="E12" t="n">
-        <v>5.128</v>
+        <v>10.552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>265.7</v>
+        <v>373.12</v>
       </c>
       <c r="D13" t="n">
-        <v>328.9</v>
+        <v>406.02</v>
       </c>
       <c r="E13" t="n">
-        <v>10.38</v>
+        <v>3.468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>244.64</v>
+        <v>320.98</v>
       </c>
       <c r="D14" t="n">
-        <v>303.24</v>
+        <v>356.48</v>
       </c>
       <c r="E14" t="n">
-        <v>11.356</v>
+        <v>8.132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>297.22</v>
+        <v>356.48</v>
       </c>
       <c r="D15" t="n">
-        <v>372.02</v>
+        <v>403.4</v>
       </c>
       <c r="E15" t="n">
-        <v>9.548</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>465.1</v>
+        <v>403.4</v>
       </c>
       <c r="D16" t="n">
-        <v>531.54</v>
+        <v>440.04</v>
       </c>
       <c r="E16" t="n">
-        <v>2.956</v>
+        <v>2.556</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>358.22</v>
+        <v>333.1</v>
       </c>
       <c r="D17" t="n">
-        <v>426.02</v>
+        <v>372.72</v>
       </c>
       <c r="E17" t="n">
-        <v>2.968</v>
+        <v>9.128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>328.9</v>
+        <v>372.72</v>
       </c>
       <c r="D18" t="n">
-        <v>373.36</v>
+        <v>446.76</v>
       </c>
       <c r="E18" t="n">
-        <v>7.564</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>303.24</v>
+        <v>304.14</v>
       </c>
       <c r="D19" t="n">
-        <v>368.94</v>
+        <v>363.2</v>
       </c>
       <c r="E19" t="n">
-        <v>8.875999999999999</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>372.02</v>
+        <v>332.58</v>
       </c>
       <c r="D20" t="n">
-        <v>418.56</v>
+        <v>387.64</v>
       </c>
       <c r="E20" t="n">
-        <v>6.524</v>
+        <v>9.676</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>418.56</v>
+        <v>371.1</v>
       </c>
       <c r="D21" t="n">
-        <v>485.86</v>
+        <v>436.92</v>
       </c>
       <c r="E21" t="n">
-        <v>2.884</v>
+        <v>7.148</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>356.88</v>
+        <v>406.02</v>
       </c>
       <c r="D22" t="n">
-        <v>419.36</v>
+        <v>450.44</v>
       </c>
       <c r="E22" t="n">
-        <v>6.544</v>
+        <v>1.136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>368.94</v>
+        <v>450.44</v>
       </c>
       <c r="D23" t="n">
-        <v>407.58</v>
+        <v>544.77</v>
       </c>
       <c r="E23" t="n">
-        <v>5.652</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -884,55 +884,74 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>407.58</v>
+        <v>363.2</v>
       </c>
       <c r="D24" t="n">
-        <v>448.08</v>
+        <v>426.34</v>
       </c>
       <c r="E24" t="n">
-        <v>3.232</v>
+        <v>3.396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>419.36</v>
+        <v>387.64</v>
       </c>
       <c r="D25" t="n">
-        <v>476.86</v>
+        <v>469.44</v>
       </c>
       <c r="E25" t="n">
-        <v>4.384</v>
+        <v>6.596</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>373.36</v>
+        <v>446.76</v>
       </c>
       <c r="D26" t="n">
-        <v>422.38</v>
+        <v>494.26</v>
       </c>
       <c r="E26" t="n">
-        <v>4.792</v>
+        <v>2.704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pond39</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>436.92</v>
+      </c>
+      <c r="D27" t="n">
+        <v>479.62</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.988</v>
       </c>
     </row>
   </sheetData>
